--- a/AlgoLab/算法实验室说明.xlsx
+++ b/AlgoLab/算法实验室说明.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\algo\AlgoLab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CloneTest\Documents\AlgoLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB68F8C-3FDC-4203-BF50-60DD123C4CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A84F723-ED9C-4111-9C4F-82F8FC766AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="153">
   <si>
     <t>AlgoName</t>
   </si>
@@ -2039,6 +2038,10 @@
   </si>
   <si>
     <t>图像阈值化</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>的地方舒服舒服舒服</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2595,7 +2598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -3283,10 +3286,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74939995-074D-4B32-A927-6F900918CAED}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3314,6 +3317,11 @@
     <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3330,15 +3338,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092567D202E0F33479162CC9F3ABB200A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="850867f854b0edbba49daf0915249a58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="eca3406a-be75-42a5-97cc-3d9b23c2063a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="72fa40600b3589713d74135b552e299c" ns3:_="">
     <xsd:import namespace="eca3406a-be75-42a5-97cc-3d9b23c2063a"/>
@@ -3470,6 +3469,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0649E3D-3A0E-4464-860D-A67AC0929FD6}">
   <ds:schemaRefs/>
@@ -3477,13 +3485,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B99DC5BC-164A-45BE-B642-C9621BCD368E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF899D8D-612B-46BA-8373-484F7F45E5B0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF899D8D-612B-46BA-8373-484F7F45E5B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B99DC5BC-164A-45BE-B642-C9621BCD368E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/AlgoLab/算法实验室说明.xlsx
+++ b/AlgoLab/算法实验室说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CloneTest\Documents\AlgoLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A84F723-ED9C-4111-9C4F-82F8FC766AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F244D0-14EE-4368-A4A8-959B61791651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="152">
   <si>
     <t>AlgoName</t>
   </si>
@@ -2038,10 +2038,6 @@
   </si>
   <si>
     <t>图像阈值化</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>的地方舒服舒服舒服</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3289,7 +3285,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3320,9 +3316,7 @@
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="10" t="s">
-        <v>152</v>
-      </c>
+      <c r="D19" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -3338,6 +3332,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092567D202E0F33479162CC9F3ABB200A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="850867f854b0edbba49daf0915249a58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="eca3406a-be75-42a5-97cc-3d9b23c2063a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="72fa40600b3589713d74135b552e299c" ns3:_="">
     <xsd:import namespace="eca3406a-be75-42a5-97cc-3d9b23c2063a"/>
@@ -3469,15 +3472,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0649E3D-3A0E-4464-860D-A67AC0929FD6}">
   <ds:schemaRefs/>
@@ -3485,13 +3479,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF899D8D-612B-46BA-8373-484F7F45E5B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B99DC5BC-164A-45BE-B642-C9621BCD368E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B99DC5BC-164A-45BE-B642-C9621BCD368E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF899D8D-612B-46BA-8373-484F7F45E5B0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>